--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-Thurs\Desktop\JavaScript-S02-267\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-Thurs\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD377877-12F0-4C25-AC45-C06A293C9513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD225160-0007-4984-A260-53C94122ACBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,6 +663,18 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -675,19 +687,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,130 +1032,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,24 +1171,24 @@
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1418,7 +1418,7 @@
         <v>67</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1706,7 +1706,7 @@
         <v>67</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -2081,36 +2081,36 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
@@ -2142,17 +2142,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-Thurs\Desktop\NODEREST-267THU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTHURS\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD225160-0007-4984-A260-53C94122ACBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83796D3A-CC6F-43D8-9C9E-A7BC1CF69E10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="71">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -663,18 +663,6 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -687,7 +675,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,130 +1032,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,24 +1171,24 @@
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1276,7 +1276,9 @@
       <c r="I9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1312,7 +1314,9 @@
       <c r="I10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1348,7 +1352,9 @@
       <c r="I11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1384,7 +1390,9 @@
       <c r="I12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1420,7 +1428,9 @@
       <c r="I13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1456,7 +1466,9 @@
       <c r="I14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -1492,7 +1504,9 @@
       <c r="I15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1528,7 +1542,9 @@
       <c r="I16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -1564,7 +1580,9 @@
       <c r="I17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -1600,7 +1618,9 @@
       <c r="I18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -1636,7 +1656,9 @@
       <c r="I19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1672,7 +1694,9 @@
       <c r="I20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1708,7 +1732,9 @@
       <c r="I21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -1744,7 +1770,9 @@
       <c r="I22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -1780,7 +1808,9 @@
       <c r="I23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -1816,7 +1846,9 @@
       <c r="I24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -1852,7 +1884,9 @@
       <c r="I25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -1888,7 +1922,9 @@
       <c r="I26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -1924,7 +1960,9 @@
       <c r="I27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -1960,7 +1998,9 @@
       <c r="I28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -1996,7 +2036,9 @@
       <c r="I29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -2032,7 +2074,9 @@
       <c r="I30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -2068,7 +2112,9 @@
       <c r="I31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -2081,38 +2127,38 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="14" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>68</v>
       </c>
@@ -2125,8 +2171,11 @@
       <c r="I35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2139,20 +2188,23 @@
       <c r="I36" t="s">
         <v>67</v>
       </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTHURS\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83796D3A-CC6F-43D8-9C9E-A7BC1CF69E10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C9CB96-A7C1-4A5E-92B3-7D6034B2FEFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,6 +663,18 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -675,19 +687,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,130 +1032,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,24 +1171,24 @@
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1999,7 +1999,7 @@
         <v>67</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2127,36 +2127,36 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
@@ -2194,17 +2194,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTHURS\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C9CB96-A7C1-4A5E-92B3-7D6034B2FEFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D9A84-4354-458F-8246-42F893621D4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -663,18 +663,6 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -687,7 +675,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,130 +1032,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,24 +1171,24 @@
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1279,7 +1279,9 @@
       <c r="J9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1317,7 +1319,9 @@
       <c r="J10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1355,7 +1359,9 @@
       <c r="J11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1393,7 +1399,9 @@
       <c r="J12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1431,7 +1439,9 @@
       <c r="J13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1469,7 +1479,9 @@
       <c r="J14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1507,7 +1519,9 @@
       <c r="J15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1545,7 +1559,9 @@
       <c r="J16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1583,7 +1599,9 @@
       <c r="J17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1621,7 +1639,9 @@
       <c r="J18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1659,7 +1679,9 @@
       <c r="J19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1697,7 +1719,9 @@
       <c r="J20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1735,7 +1759,9 @@
       <c r="J21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1773,7 +1799,9 @@
       <c r="J22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1811,7 +1839,9 @@
       <c r="J23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1849,7 +1879,9 @@
       <c r="J24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1887,7 +1919,9 @@
       <c r="J25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1925,7 +1959,9 @@
       <c r="J26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -1963,7 +1999,9 @@
       <c r="J27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2001,7 +2039,9 @@
       <c r="J28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2039,7 +2079,9 @@
       <c r="J29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2077,7 +2119,9 @@
       <c r="J30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2115,7 +2159,9 @@
       <c r="J31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -2127,38 +2173,38 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="14" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>68</v>
       </c>
@@ -2174,8 +2220,11 @@
       <c r="J35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2194,17 +2243,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTHURS\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D9A84-4354-458F-8246-42F893621D4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF3CF4C-9165-4D70-A342-1B5AA892E397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -663,6 +663,18 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -675,19 +687,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,130 +1032,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,24 +1171,24 @@
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1280,7 +1280,7 @@
         <v>67</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1320,7 +1320,7 @@
         <v>67</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1360,7 +1360,7 @@
         <v>67</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1400,7 +1400,7 @@
         <v>67</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1440,7 +1440,7 @@
         <v>67</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1520,7 +1520,7 @@
         <v>67</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1560,7 +1560,7 @@
         <v>67</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -1720,7 +1720,7 @@
         <v>67</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1840,7 +1840,7 @@
         <v>66</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -1960,7 +1960,7 @@
         <v>67</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -2040,7 +2040,7 @@
         <v>70</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -2080,7 +2080,7 @@
         <v>67</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -2173,36 +2173,36 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
     </row>
     <row r="33" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
@@ -2240,20 +2240,23 @@
       <c r="J36" t="s">
         <v>67</v>
       </c>
+      <c r="K36" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTHURS\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF3CF4C-9165-4D70-A342-1B5AA892E397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A686C-5B81-4EA2-BA2C-275801182F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="71">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -663,18 +663,6 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -687,7 +675,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,130 +1032,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,24 +1171,24 @@
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1282,7 +1282,9 @@
       <c r="K9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1322,7 +1324,9 @@
       <c r="K10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1362,7 +1366,9 @@
       <c r="K11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1402,7 +1408,9 @@
       <c r="K12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1442,7 +1450,9 @@
       <c r="K13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1482,7 +1492,9 @@
       <c r="K14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1522,7 +1534,9 @@
       <c r="K15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1562,7 +1576,9 @@
       <c r="K16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1602,7 +1618,9 @@
       <c r="K17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1642,7 +1660,9 @@
       <c r="K18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1682,7 +1702,9 @@
       <c r="K19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1722,7 +1744,9 @@
       <c r="K20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1762,7 +1786,9 @@
       <c r="K21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1802,7 +1828,9 @@
       <c r="K22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1842,7 +1870,9 @@
       <c r="K23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1882,7 +1912,9 @@
       <c r="K24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -1922,7 +1954,9 @@
       <c r="K25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -1962,7 +1996,9 @@
       <c r="K26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2002,7 +2038,9 @@
       <c r="K27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2042,7 +2080,9 @@
       <c r="K28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2082,7 +2122,9 @@
       <c r="K29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2122,7 +2164,9 @@
       <c r="K30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2162,7 +2206,9 @@
       <c r="K31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -2173,38 +2219,38 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="14" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>68</v>
       </c>
@@ -2223,8 +2269,11 @@
       <c r="K35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2243,20 +2292,23 @@
       <c r="K36" t="s">
         <v>70</v>
       </c>
+      <c r="L36" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTHURS\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A686C-5B81-4EA2-BA2C-275801182F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4781F-1B76-4043-8F15-E2A8C9416A2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,6 +663,18 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -675,19 +687,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,130 +1032,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,24 +1171,24 @@
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1535,7 +1535,7 @@
         <v>70</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1997,7 +1997,7 @@
         <v>70</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2081,7 +2081,7 @@
         <v>70</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2219,36 +2219,36 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
     </row>
     <row r="33" spans="1:12" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
@@ -2293,22 +2293,22 @@
         <v>70</v>
       </c>
       <c r="L36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTHURS\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4781F-1B76-4043-8F15-E2A8C9416A2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F29D2-31BE-4368-984B-1D00A1AC00C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="71">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1285,9 @@
       <c r="L9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1327,7 +1329,9 @@
       <c r="L10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1369,7 +1373,9 @@
       <c r="L11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1411,7 +1417,9 @@
       <c r="L12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1451,9 +1459,11 @@
         <v>70</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1495,7 +1505,9 @@
       <c r="L14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1537,7 +1549,9 @@
       <c r="L15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1579,7 +1593,9 @@
       <c r="L16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1621,7 +1637,9 @@
       <c r="L17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1663,7 +1681,9 @@
       <c r="L18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1705,7 +1725,9 @@
       <c r="L19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1747,7 +1769,9 @@
       <c r="L20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1789,7 +1813,9 @@
       <c r="L21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -1831,7 +1857,9 @@
       <c r="L22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1873,7 +1901,9 @@
       <c r="L23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -1915,7 +1945,9 @@
       <c r="L24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -1957,7 +1989,9 @@
       <c r="L25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -1999,7 +2033,9 @@
       <c r="L26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2041,7 +2077,9 @@
       <c r="L27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -2083,7 +2121,9 @@
       <c r="L28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -2125,7 +2165,9 @@
       <c r="L29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -2167,7 +2209,9 @@
       <c r="L30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -2209,7 +2253,9 @@
       <c r="L31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M31" s="7"/>
+      <c r="M31" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -2244,13 +2290,13 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:12" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>68</v>
       </c>
@@ -2272,8 +2318,11 @@
       <c r="L35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2293,6 +2342,9 @@
         <v>70</v>
       </c>
       <c r="L36" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" t="s">
         <v>70</v>
       </c>
     </row>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTHURS\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F29D2-31BE-4368-984B-1D00A1AC00C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603EBB0D-7F0F-4213-B5F5-578416C7C556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1288,9 @@
       <c r="M9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1332,7 +1334,9 @@
       <c r="M10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1376,7 +1380,9 @@
       <c r="M11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1420,7 +1426,9 @@
       <c r="M12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1464,7 +1472,9 @@
       <c r="M13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1508,7 +1518,9 @@
       <c r="M14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1552,7 +1564,9 @@
       <c r="M15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1596,7 +1610,9 @@
       <c r="M16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -1640,7 +1656,9 @@
       <c r="M17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1684,7 +1702,9 @@
       <c r="M18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -1728,7 +1748,9 @@
       <c r="M19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -1772,7 +1794,9 @@
       <c r="M20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -1816,7 +1840,9 @@
       <c r="M21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -1860,7 +1886,9 @@
       <c r="M22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -1904,7 +1932,9 @@
       <c r="M23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -1948,7 +1978,9 @@
       <c r="M24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -1992,7 +2024,9 @@
       <c r="M25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -2036,7 +2070,9 @@
       <c r="M26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -2080,7 +2116,9 @@
       <c r="M27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2124,7 +2162,9 @@
       <c r="M28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -2168,7 +2208,9 @@
       <c r="M29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="7"/>
+      <c r="N29" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -2212,7 +2254,9 @@
       <c r="M30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -2256,7 +2300,9 @@
       <c r="M31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N31" s="7"/>
+      <c r="N31" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -2290,13 +2336,13 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>68</v>
       </c>
@@ -2321,8 +2367,11 @@
       <c r="M35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2346,6 +2395,9 @@
       </c>
       <c r="M36" t="s">
         <v>70</v>
+      </c>
+      <c r="N36" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTHURS\Desktop\NODEREST-267THU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603EBB0D-7F0F-4213-B5F5-578416C7C556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E13EF57-ADF9-40BC-ACB0-24F6141CFF6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="71">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1291,9 @@
       <c r="N9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -1337,7 +1339,9 @@
       <c r="N10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1383,7 +1387,9 @@
       <c r="N11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1429,7 +1435,9 @@
       <c r="N12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -1475,7 +1483,9 @@
       <c r="N13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1521,7 +1531,9 @@
       <c r="N14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1567,7 +1579,9 @@
       <c r="N15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="7"/>
+      <c r="O15" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1613,7 +1627,9 @@
       <c r="N16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="7"/>
+      <c r="O16" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -1659,7 +1675,9 @@
       <c r="N17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="7"/>
+      <c r="O17" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -1705,7 +1723,9 @@
       <c r="N18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="7"/>
+      <c r="O18" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -1751,7 +1771,9 @@
       <c r="N19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="7"/>
+      <c r="O19" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -1797,7 +1819,9 @@
       <c r="N20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O20" s="7"/>
+      <c r="O20" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -1843,7 +1867,9 @@
       <c r="N21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="7"/>
+      <c r="O21" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -1889,7 +1915,9 @@
       <c r="N22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O22" s="7"/>
+      <c r="O22" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -1935,7 +1963,9 @@
       <c r="N23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="7"/>
+      <c r="O23" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -1981,7 +2011,9 @@
       <c r="N24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O24" s="7"/>
+      <c r="O24" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -2027,7 +2059,9 @@
       <c r="N25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O25" s="7"/>
+      <c r="O25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2073,7 +2107,9 @@
       <c r="N26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O26" s="7"/>
+      <c r="O26" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -2119,7 +2155,9 @@
       <c r="N27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="7"/>
+      <c r="O27" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -2165,7 +2203,9 @@
       <c r="N28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="7"/>
+      <c r="O28" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -2211,7 +2251,9 @@
       <c r="N29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O29" s="7"/>
+      <c r="O29" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -2257,7 +2299,9 @@
       <c r="N30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O30" s="7"/>
+      <c r="O30" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -2303,7 +2347,9 @@
       <c r="N31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O31" s="7"/>
+      <c r="O31" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -2336,13 +2382,13 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>68</v>
       </c>
@@ -2370,8 +2416,11 @@
       <c r="N35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2398,6 +2447,9 @@
       </c>
       <c r="N36" t="s">
         <v>67</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
